--- a/data/outputs/数学期刊(下)_altmetric/70Mathematical Notes.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/70Mathematical Notes.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE223"/>
+  <dimension ref="A1:CF223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1537,6 +1548,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1788,6 +1802,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2280,6 +2300,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2525,6 +2548,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2772,6 +2798,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3278,6 +3310,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3537,6 +3572,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3784,6 +3822,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4031,6 +4072,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4278,6 +4322,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4537,6 +4584,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4792,6 +4842,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5282,6 +5338,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5529,6 +5588,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5786,6 +5848,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,6 +6092,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6284,6 +6352,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6537,6 +6608,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6782,6 +6856,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7023,6 +7100,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7270,6 +7350,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7521,6 +7604,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7772,6 +7858,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8023,6 +8112,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8274,6 +8366,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8521,6 +8616,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8768,6 +8866,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9017,6 +9118,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9266,6 +9370,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9517,6 +9624,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9764,6 +9874,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10011,6 +10124,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10270,6 +10386,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10529,6 +10648,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10778,6 +10900,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11023,6 +11148,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11266,6 +11394,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11521,6 +11652,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11776,6 +11910,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12023,6 +12160,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12270,6 +12410,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12521,6 +12664,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12776,6 +12922,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13027,6 +13176,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13276,6 +13428,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13521,6 +13676,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13768,6 +13926,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14017,6 +14178,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14258,6 +14422,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14509,6 +14676,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14760,6 +14930,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15011,6 +15184,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15262,6 +15438,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15513,6 +15692,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15764,6 +15946,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16011,6 +16196,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16268,6 +16456,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16509,6 +16700,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16752,6 +16946,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16987,6 +17184,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17230,6 +17430,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17485,6 +17688,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17732,6 +17938,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17979,6 +18188,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18230,6 +18442,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18477,6 +18692,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18720,6 +18938,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18971,6 +19192,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19216,6 +19440,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19457,6 +19684,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19714,6 +19944,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19959,6 +20192,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20196,6 +20432,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20443,6 +20682,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20682,6 +20924,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20937,6 +21182,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21184,6 +21432,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21435,6 +21686,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21686,6 +21940,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21945,6 +22202,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22196,6 +22456,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22443,6 +22706,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22690,6 +22956,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22935,6 +23204,9 @@
         <v>0</v>
       </c>
       <c r="CE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23180,6 +23452,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23431,6 +23706,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23678,6 +23956,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23925,6 +24206,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24182,6 +24466,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24423,6 +24710,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24670,6 +24960,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24917,6 +25210,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25168,6 +25464,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25419,6 +25718,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25670,6 +25972,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25913,6 +26218,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26168,6 +26476,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26415,6 +26726,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26662,6 +26976,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26913,6 +27230,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27154,6 +27474,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27395,6 +27718,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27634,6 +27960,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27881,6 +28210,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28136,6 +28468,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28383,6 +28718,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28642,6 +28980,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28889,6 +29230,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29140,6 +29484,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29391,6 +29738,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29650,6 +30000,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29909,6 +30262,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30160,6 +30516,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30415,6 +30774,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30660,6 +31022,9 @@
         <v>0</v>
       </c>
       <c r="CE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30897,6 +31262,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31156,6 +31524,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31401,6 +31772,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31646,6 +32020,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31897,6 +32274,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32146,6 +32526,9 @@
         <v>0</v>
       </c>
       <c r="CE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32387,6 +32770,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32638,6 +33024,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32881,6 +33270,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33136,6 +33528,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33381,6 +33776,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33622,6 +34020,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33877,6 +34278,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34128,6 +34532,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34377,6 +34784,9 @@
         <v>0</v>
       </c>
       <c r="CE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34618,6 +35028,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34869,6 +35282,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35120,6 +35536,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35363,6 +35782,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35614,6 +36036,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35873,6 +36298,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36124,6 +36552,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36375,6 +36806,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36624,6 +37058,9 @@
         <v>0</v>
       </c>
       <c r="CE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36861,6 +37298,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37108,6 +37548,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37361,6 +37804,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37612,6 +38058,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37867,6 +38316,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38114,6 +38566,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38365,6 +38820,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38620,6 +39078,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38861,6 +39322,9 @@
         <v>0</v>
       </c>
       <c r="CE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39106,6 +39570,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39345,6 +39812,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39596,6 +40066,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39847,6 +40320,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -40098,6 +40574,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40349,6 +40828,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40600,6 +41082,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40857,6 +41342,9 @@
         <v>0</v>
       </c>
       <c r="CE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41100,6 +41588,9 @@
         <v>0</v>
       </c>
       <c r="CE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41337,6 +41828,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41578,6 +42072,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41821,6 +42318,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42060,6 +42560,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42305,6 +42808,9 @@
         <v>0</v>
       </c>
       <c r="CE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42546,6 +43052,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42791,6 +43300,9 @@
         <v>0</v>
       </c>
       <c r="CE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43032,6 +43544,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43271,6 +43786,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43514,6 +44032,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -43757,6 +44278,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -43996,6 +44520,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44235,6 +44762,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -44490,6 +45020,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -44737,6 +45270,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -44998,6 +45534,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45247,6 +45786,9 @@
         <v>0</v>
       </c>
       <c r="CE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45486,6 +46028,9 @@
         <v>0</v>
       </c>
       <c r="CE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45727,6 +46272,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -45976,6 +46524,9 @@
         <v>0</v>
       </c>
       <c r="CE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46217,6 +46768,9 @@
       <c r="CE184" t="n">
         <v>0</v>
       </c>
+      <c r="CF184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -46460,6 +47014,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -46711,6 +47268,9 @@
       <c r="CE186" t="n">
         <v>0</v>
       </c>
+      <c r="CF186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -46962,6 +47522,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -47209,6 +47772,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -47460,6 +48026,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -47707,6 +48276,9 @@
       <c r="CE190" t="n">
         <v>0</v>
       </c>
+      <c r="CF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -47956,6 +48528,9 @@
         <v>0</v>
       </c>
       <c r="CE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48201,6 +48776,9 @@
       <c r="CE192" t="n">
         <v>0</v>
       </c>
+      <c r="CF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48456,6 +49034,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -48701,6 +49282,9 @@
         <v>0</v>
       </c>
       <c r="CE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48938,6 +49522,9 @@
       <c r="CE195" t="n">
         <v>0</v>
       </c>
+      <c r="CF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -49183,6 +49770,9 @@
         <v>0</v>
       </c>
       <c r="CE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49424,6 +50014,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -49667,6 +50260,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -49918,6 +50514,9 @@
       <c r="CE199" t="n">
         <v>0</v>
       </c>
+      <c r="CF199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -50163,6 +50762,9 @@
         <v>0</v>
       </c>
       <c r="CE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50404,6 +51006,9 @@
       <c r="CE201" t="n">
         <v>0</v>
       </c>
+      <c r="CF201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -50653,6 +51258,9 @@
         <v>0</v>
       </c>
       <c r="CE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50894,6 +51502,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -51139,6 +51750,9 @@
         <v>0</v>
       </c>
       <c r="CE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51380,6 +51994,9 @@
       <c r="CE205" t="n">
         <v>0</v>
       </c>
+      <c r="CF205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -51631,6 +52248,9 @@
       <c r="CE206" t="n">
         <v>0</v>
       </c>
+      <c r="CF206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -51886,6 +52506,9 @@
       <c r="CE207" t="n">
         <v>0</v>
       </c>
+      <c r="CF207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -52137,6 +52760,9 @@
       <c r="CE208" t="n">
         <v>0</v>
       </c>
+      <c r="CF208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -52388,6 +53014,9 @@
       <c r="CE209" t="n">
         <v>0</v>
       </c>
+      <c r="CF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -52633,6 +53262,9 @@
         <v>0</v>
       </c>
       <c r="CE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52874,6 +53506,9 @@
       <c r="CE211" t="n">
         <v>0</v>
       </c>
+      <c r="CF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -53125,6 +53760,9 @@
       <c r="CE212" t="n">
         <v>0</v>
       </c>
+      <c r="CF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -53366,6 +54004,9 @@
         <v>0</v>
       </c>
       <c r="CE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53611,6 +54252,9 @@
       <c r="CE214" t="n">
         <v>0</v>
       </c>
+      <c r="CF214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -53866,6 +54510,9 @@
       <c r="CE215" t="n">
         <v>0</v>
       </c>
+      <c r="CF215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -54117,6 +54764,9 @@
       <c r="CE216" t="n">
         <v>0</v>
       </c>
+      <c r="CF216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -54364,6 +55014,9 @@
       <c r="CE217" t="n">
         <v>0</v>
       </c>
+      <c r="CF217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -54607,6 +55260,9 @@
       <c r="CE218" t="n">
         <v>0</v>
       </c>
+      <c r="CF218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -54860,6 +55516,9 @@
         <v>0</v>
       </c>
       <c r="CE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55101,6 +55760,9 @@
       <c r="CE220" t="n">
         <v>0</v>
       </c>
+      <c r="CF220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -55348,6 +56010,9 @@
       <c r="CE221" t="n">
         <v>0</v>
       </c>
+      <c r="CF221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -55599,6 +56264,9 @@
       <c r="CE222" t="n">
         <v>0</v>
       </c>
+      <c r="CF222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -55850,6 +56518,9 @@
       <c r="CE223" t="n">
         <v>0</v>
       </c>
+      <c r="CF223" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
